--- a/data/preprocessed/motion/S3_sway.xlsx
+++ b/data/preprocessed/motion/S3_sway.xlsx
@@ -388,7 +388,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1166666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1166666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -414,7 +414,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1166666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -423,11 +423,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 1]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -436,11 +436,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 1]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -449,11 +449,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 1]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -462,11 +462,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 1]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -475,11 +475,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 1]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -488,11 +488,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 1]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -501,11 +501,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 1]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -514,11 +514,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 1]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -527,11 +527,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 3]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.08333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -540,11 +540,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 3]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.08333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -553,11 +553,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 3]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.08333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -566,11 +566,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 3]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.08333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -579,11 +579,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 3]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.08333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -592,11 +592,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 1]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -605,11 +605,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 1]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -618,11 +618,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 1]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -631,11 +631,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 1]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -644,11 +644,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 1]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -657,11 +657,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 1]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -670,11 +670,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 1]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1166666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.1166666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.1166666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.1166666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -735,11 +735,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -748,11 +748,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -761,11 +761,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -774,11 +774,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -787,11 +787,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -800,11 +800,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -813,11 +813,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -826,11 +826,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -839,11 +839,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -852,11 +852,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -865,11 +865,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -878,11 +878,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -891,11 +891,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -904,11 +904,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -917,11 +917,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -930,11 +930,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -943,11 +943,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -956,11 +956,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -969,11 +969,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -982,11 +982,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -995,11 +995,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1021,11 +1021,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1034,11 +1034,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1047,11 +1047,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1060,11 +1060,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1073,11 +1073,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1086,11 +1086,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1099,11 +1099,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1112,11 +1112,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1125,11 +1125,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1138,11 +1138,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1151,11 +1151,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 2]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
